--- a/results_sheet.xlsx
+++ b/results_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1180" windowWidth="27540" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1260" yWindow="1180" windowWidth="27540" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
                   <c:v>0.955833333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.974833333333</c:v>
+                  <c:v>0.971333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,11 +346,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="820848224"/>
-        <c:axId val="820962736"/>
+        <c:axId val="-822568128"/>
+        <c:axId val="-822566080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="820848224"/>
+        <c:axId val="-822568128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820962736"/>
+        <c:crossAx val="-822566080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -401,7 +401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="820962736"/>
+        <c:axId val="-822566080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -422,6 +422,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -454,7 +455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820848224"/>
+        <c:crossAx val="-822568128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="0.01"/>
@@ -703,10 +704,10 @@
                   <c:v>0.5085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.843833333333</c:v>
+                  <c:v>0.842833333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.877333333333</c:v>
+                  <c:v>0.879833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,11 +723,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="869816096"/>
-        <c:axId val="867773568"/>
+        <c:axId val="-860614384"/>
+        <c:axId val="-860637376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="869816096"/>
+        <c:axId val="-860614384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867773568"/>
+        <c:crossAx val="-860637376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="867773568"/>
+        <c:axId val="-860637376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869816096"/>
+        <c:crossAx val="-860614384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,10 +1076,10 @@
                   <c:v>0.5135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83</c:v>
+                  <c:v>0.826833333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.841666666667</c:v>
+                  <c:v>0.837333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,11 +1095,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="865175312"/>
-        <c:axId val="872113440"/>
+        <c:axId val="-860285504"/>
+        <c:axId val="-860384096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="865175312"/>
+        <c:axId val="-860285504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="872113440"/>
+        <c:crossAx val="-860384096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="872113440"/>
+        <c:axId val="-860384096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="865175312"/>
+        <c:crossAx val="-860285504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,11 +1382,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="867108896"/>
-        <c:axId val="870156144"/>
+        <c:axId val="-822553184"/>
+        <c:axId val="-822551136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="867108896"/>
+        <c:axId val="-822553184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="870156144"/>
+        <c:crossAx val="-822551136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="870156144"/>
+        <c:axId val="-822551136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867108896"/>
+        <c:crossAx val="-822553184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4097,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" activeCellId="4" sqref="A3:B3 A14 B14 A25 B25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4160,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.97483333333300004</v>
+        <v>0.97133333333299998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4224,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>0.84383333333300004</v>
+        <v>0.84283333333300003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4232,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.87733333333300001</v>
+        <v>0.87983333333299996</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4296,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>0.83</v>
+        <v>0.82683333333300002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4304,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>0.84166666666699996</v>
+        <v>0.83733333333299997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4378,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
